--- a/medicine/Enfance/Union_française_pour_le_sauvetage_de_l'enfance/Union_française_pour_le_sauvetage_de_l'enfance.xlsx
+++ b/medicine/Enfance/Union_française_pour_le_sauvetage_de_l'enfance/Union_française_pour_le_sauvetage_de_l'enfance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Union_fran%C3%A7aise_pour_le_sauvetage_de_l%27enfance</t>
+          <t>Union_française_pour_le_sauvetage_de_l'enfance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Union française pour le sauvetage de l’enfance (UFSE), plus couramment appelée Union pour l'Enfance[1] depuis son rapprochement en 2010 avec le Comité Français du Secours aux Enfants (CFSE)[2], est une association créée en 1887 par deux philanthropes Caroline de Barrau et Pauline Kergomard. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Union française pour le sauvetage de l’enfance (UFSE), plus couramment appelée Union pour l'Enfance depuis son rapprochement en 2010 avec le Comité Français du Secours aux Enfants (CFSE), est une association créée en 1887 par deux philanthropes Caroline de Barrau et Pauline Kergomard. 
 Association reconnue d’utilité publique depuis 1891, elle œuvre depuis 135 ans pour la protection de l'enfance et le soutien à la parentalité. 
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Union_fran%C3%A7aise_pour_le_sauvetage_de_l%27enfance</t>
+          <t>Union_française_pour_le_sauvetage_de_l'enfance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,17 +526,93 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 L’Union française pour le sauvetage de l’enfance - dite le "Sauvetage" - fut en 1887, une des toutes premières associations laïques à poser le problème de l’enfant maltraité dans sa famille. Pendant plus de 100 ans, l’UFSE est venue en aide à des milliers de jeunes en difficulté, tout en s’efforçant d’adapter sans cesse ses interventions à des besoins en constante évolution.
 Avec l’essor industriel, et la misère totale dans les zones rurales, beaucoup de familles décident de quitter leur campagne pour travailler dans une manufacture, pensant ainsi améliorer leur niveau de vie. Mais à quel prix ! Œuvrant de 6 h du matin à 8 h du soir, les parents ont comme seuls choix de laisser leurs enfants se débrouiller tout seul pendant la journée (ce phénomène contribuant fortement à augmenter la délinquance juvénile des enfants livrés à eux-mêmes) ; ou bien de faire travailler les plus jeunes avec eux, dans les mêmes conditions, dans le même environnement bruyant et sale. Pendant ce temps évidemment, les enfants ne vont pas à l’école.
 Pour les jeunes orphelins, la situation est la suivante : les moins de 12 ans sont accueillis à l’orphelinat, géré par l’État. Mais les autres, plus grands, doivent se débrouiller tout seuls, ou trouver une association de charité en mesure de leur offrir un toit et à manger. Souvent ce sont des ateliers déguisés, de véritables manufactures exploitant les enfants accueillis dans des conditions de travail sordides. Beaucoup d’enfants restent donc dans la rue et sont réduits à la mendicité.
-[réf. nécessaire]
-Fondation
+[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Union_française_pour_le_sauvetage_de_l'enfance</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Union_fran%C3%A7aise_pour_le_sauvetage_de_l%27enfance</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fondation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dans ce contexte, deux femmes, Pauline Kergomard et Caroline de Barrau, décident d’aider ces enfants miséreux. Caroline de Barrau était une altruiste comme on en croise peu : elle mourra d’ailleurs des suites d’une pneumonie contractée après avoir donné son manteau à un mendiant un soir d’hiver. Pauline Kergomard, elle, est une ancienne institutrice très engagée. Elle veut non seulement protéger les enfants en danger mais aussi leur donner une vraie éducation.
 Le premier objectif de ces deux femmes : regrouper des hommes et des femmes compétents autour de la cause des enfants pour en effectuer, disent-elles : le Sauvetage. Parmi eux, Jules Simon, ancien Premier Ministre, mais aussi des avocats, des procureurs, des représentants de la police, de toutes religions confondues. Les associations laïques sont très rares à l’époque.
 Le groupe se donne pour première mission de signaler à qui de droit, ou de recueillir, les enfants de moins de 16 ans en danger moral ou maltraités.
-[réf. nécessaire]
-Premières actions
+[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Union_française_pour_le_sauvetage_de_l'enfance</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Union_fran%C3%A7aise_pour_le_sauvetage_de_l%27enfance</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Premières actions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Chaque membre doit chercher dans son quartier les enfants en danger, les mettre en confiance, leur apporter les premiers soins (nourritures, vêtements chauds), puis mener une enquête minutieuse en leur posant des questions pour pouvoir juger s’ils sont en danger moral ou maltraités. Cela est très novateur pour l’époque, c’est cette démarche qui est même à l’origine de ce qu’on appelle aujourd’hui l’enquête sociale.
 Si l’enfant est considéré comme en danger, on propose à son père (si père il y a) de le confier au Sauvetage qui s’engage à se charger de son éducation, et à lui permettre de pratiquer sa religion. Si le père refuse, une enquête plus approfondie est alors menée et est envoyée aux autorités. Ici aussi l’UFSE est un précurseur puisqu’il s’agit là d’un véritable réseau de signalement.
 Lorsque l’enfant n’a pas de parents, le Sauvetage fait en sorte de les accueillir, soit chez les membres directement, soit dans des institutions existantes, ou dans d’autres œuvres de charité aux méthodes approuvées par l’UFSE.
@@ -538,36 +626,38 @@
 L’UFSE va également s’engager contre le travail des enfants, notamment au travers de son président d’alors, Jules Simon, auteur d’un livre sur la traite des enfants (L’Ouvrier de huit ans) qui fait scandale tant il ose critiquer le système en place. L’État va subir tant de pression de l’UFSE et d’autres institutions qu’en 1892, le temps de travail journalier des enfants réduit de 16 heures à 12 heures. Cela peut choquer aujourd’hui mais pour l’époque, il s’agit d’une considérable avancée.
 Progressivement, on est donc passé de l’enfant coupable à l’enfant victime. On ne corrige plus l’enfant, on l’éduque. On ne fait plus de la répression mais de la prévention. L’UFSE a contribué à ces avancées en matière de protection de l’Enfance.
 [réf. nécessaire]
-Aujourd’hui encore, ses activités demeurent proches de ce qu’elles étaient à l’origine : protection, prévention et sensibilisation du public[3].
+Aujourd’hui encore, ses activités demeurent proches de ce qu’elles étaient à l’origine : protection, prévention et sensibilisation du public.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Union_fran%C3%A7aise_pour_le_sauvetage_de_l%27enfance</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Union_française_pour_le_sauvetage_de_l'enfance</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Union_fran%C3%A7aise_pour_le_sauvetage_de_l%27enfance</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Présidents du Conseil d'administration de l'Union pour l'Enfance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jules Simon : 1888-1896
@@ -587,69 +677,73 @@
 Paul Fouchet : 1982-1996
 Philippe Cuvillier, ambassadeur de France : 1996-2015
 Annick Simon : 2016
-Martial de Braquilanges[4] : depuis 2016</t>
+Martial de Braquilanges : depuis 2016</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Union_fran%C3%A7aise_pour_le_sauvetage_de_l%27enfance</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Union_française_pour_le_sauvetage_de_l'enfance</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Union_fran%C3%A7aise_pour_le_sauvetage_de_l%27enfance</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Financement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Union française pour le sauvetage de l'enfance a su développer son autonomie : œuvre dont les activités étaient entièrement financées par la charité privée à la fin du XIXe siècle, elle est devenue petit à petit une association dont les actions ont été financées par l’État, tout en gardant toute sa liberté d'innovation. Elle ne souffre pas de l’inertie inhérente aux grandes associations.[réf. nécessaire]
-En 1936, une somme annuelle de 1 100 francs était allouée à l’UFSE, ce qui représentait à peu près six mois de pension d’un enfant. Le "Sauvetage" en avait alors plus de six cents à sa charge. Depuis, les choses ont bien changé. Aujourd’hui, l’association est en majeure partie financée par l’État, sur la base d’un prix de journée pour les centres de placement familial, et d’un forfait pour le centre d’accueil mères et enfants. Mais le souci d’autofinancement qui assura l’indépendance de l’association et la sécurité des enfants demeure au premier rang des préoccupations du Conseil d'Administration et de sa direction qui exécute actuellement le plan stratégique CAP DEV 2027[5] afin que des fonds privés apportent un effet de levier qualitatif à ses actions.
+En 1936, une somme annuelle de 1 100 francs était allouée à l’UFSE, ce qui représentait à peu près six mois de pension d’un enfant. Le "Sauvetage" en avait alors plus de six cents à sa charge. Depuis, les choses ont bien changé. Aujourd’hui, l’association est en majeure partie financée par l’État, sur la base d’un prix de journée pour les centres de placement familial, et d’un forfait pour le centre d’accueil mères et enfants. Mais le souci d’autofinancement qui assura l’indépendance de l’association et la sécurité des enfants demeure au premier rang des préoccupations du Conseil d'Administration et de sa direction qui exécute actuellement le plan stratégique CAP DEV 2027 afin que des fonds privés apportent un effet de levier qualitatif à ses actions.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Union_fran%C3%A7aise_pour_le_sauvetage_de_l%27enfance</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Union_française_pour_le_sauvetage_de_l'enfance</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Union_fran%C3%A7aise_pour_le_sauvetage_de_l%27enfance</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Union pour l’Enfance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Union pour le sauvetage de l’enfance est à l’origine de la création en 2010 de l’Union pour l’Enfance, un groupement d’associations au service de l’enfance et de l’adolescence en souffrance. Quatre associations en sont membres fondateurs ou affiliés: l’UFSE, le CFSE, les Enfants du Compas et Agapè Anjou[6]; deux associations en sont membres adhérents : l'AFOCAL Pays de la Loire[7] et Visages d'Espoir. Elles travaillent ensemble dans leurs domaines spécifiques et mettent en commun leurs ressources administratives et de gestion. L’Union pour l’Enfance a pour mission principale d’accompagner les enfants de l'Aide Sociale à l'Enfance (ASE) du plus jeune âge jusqu’à l’insertion sociale et professionnelle dans une prise en charge inter établissements et décloisonnée.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Union pour le sauvetage de l’enfance est à l’origine de la création en 2010 de l’Union pour l’Enfance, un groupement d’associations au service de l’enfance et de l’adolescence en souffrance. Quatre associations en sont membres fondateurs ou affiliés: l’UFSE, le CFSE, les Enfants du Compas et Agapè Anjou; deux associations en sont membres adhérents : l'AFOCAL Pays de la Loire et Visages d'Espoir. Elles travaillent ensemble dans leurs domaines spécifiques et mettent en commun leurs ressources administratives et de gestion. L’Union pour l’Enfance a pour mission principale d’accompagner les enfants de l'Aide Sociale à l'Enfance (ASE) du plus jeune âge jusqu’à l’insertion sociale et professionnelle dans une prise en charge inter établissements et décloisonnée.
 </t>
         </is>
       </c>
